--- a/Tests/TestLamda/result_total_new.xlsx
+++ b/Tests/TestLamda/result_total_new.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,58 +535,58 @@
         <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9999597690686786</v>
+        <v>0.9758174468741794</v>
       </c>
       <c r="C2" t="n">
-        <v>2.004313766911869</v>
+        <v>4.674202048381939</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.2381880483937084</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4</v>
+        <v>0.1926010660759463</v>
       </c>
       <c r="F2" t="n">
-        <v>300000015.4186218</v>
+        <v>397837.7047298917</v>
       </c>
       <c r="G2" t="n">
-        <v>11.71999998187301</v>
+        <v>11.85109435100986</v>
       </c>
       <c r="H2" t="n">
-        <v>300.0000036986218</v>
+        <v>39.78258536355406</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1000000000647411</v>
+        <v>0.1878322462551771</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4859999990289093</v>
+        <v>0.404722471295316</v>
       </c>
       <c r="K2" t="n">
-        <v>600.0000038928451</v>
+        <v>603.2793241290854</v>
       </c>
       <c r="L2" t="n">
-        <v>300.0000001942233</v>
+        <v>563.4967387655313</v>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>83.96726928523877</v>
       </c>
       <c r="N2" t="n">
-        <v>50.00000009711167</v>
+        <v>103.876672887452</v>
       </c>
       <c r="O2" t="n">
-        <v>2.5</v>
+        <v>4.198363464261939</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>5.192079256745551</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1499999990289093</v>
+        <v>0.1496547792175226</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>0.1190676597654884</v>
       </c>
       <c r="S2" t="n">
-        <v>0.136</v>
+        <v>0.1360000323123049</v>
       </c>
     </row>
     <row r="3">
@@ -594,58 +594,4660 @@
         <v>100</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9997210298890882</v>
+        <v>0.9538685064356163</v>
       </c>
       <c r="C3" t="n">
-        <v>2.002906141902492</v>
+        <v>5.928596772288397</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>0.281748457976185</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4</v>
+        <v>0.3962468063891456</v>
       </c>
       <c r="F3" t="n">
-        <v>300000189.4308427</v>
+        <v>2504982.411467982</v>
       </c>
       <c r="G3" t="n">
-        <v>11.71999912854147</v>
+        <v>10.94861760638054</v>
       </c>
       <c r="H3" t="n">
-        <v>300.0001777108436</v>
+        <v>250.4971462850375</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1000000031129729</v>
+        <v>0.121544021713574</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4859999533141008</v>
+        <v>0.4258868586054532</v>
       </c>
       <c r="K3" t="n">
-        <v>600.0001870497623</v>
+        <v>615.1292114257594</v>
       </c>
       <c r="L3" t="n">
-        <v>300.0000093389187</v>
+        <v>364.6320651407219</v>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>70.98530420951059</v>
       </c>
       <c r="N3" t="n">
-        <v>50.00000466945936</v>
+        <v>50.60127979803301</v>
       </c>
       <c r="O3" t="n">
-        <v>2.5</v>
+        <v>3.54926521047553</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.523679645806208</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1499999533140906</v>
+        <v>0.1487624004247184</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2000000000000097</v>
+        <v>0.1411240357140701</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1360000000000006</v>
+        <v>0.1360004224666647</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>100</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9981362644829048</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.023478248871585</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7297942182584932</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3006899899203654</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3182534.881739412</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.89624698087225</v>
+      </c>
+      <c r="H4" t="n">
+        <v>318.2519985492431</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.09391881190276918</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6508935371408432</v>
+      </c>
+      <c r="K4" t="n">
+        <v>600.0084342575507</v>
+      </c>
+      <c r="L4" t="n">
+        <v>281.7564357083075</v>
+      </c>
+      <c r="M4" t="n">
+        <v>27.40498554198739</v>
+      </c>
+      <c r="N4" t="n">
+        <v>66.51389583098333</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.37024927709937</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.325684371018934</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.149997918483435</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.3648956186562513</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.1360000000011568</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.804829174552647</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.431777831452527</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1707122452164601</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2130592832833283</v>
+      </c>
+      <c r="F5" t="n">
+        <v>700239.2024267237</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11.33752443703886</v>
+      </c>
+      <c r="H5" t="n">
+        <v>70.02278649022867</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2125504651517554</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.3543257567001875</v>
+      </c>
+      <c r="K5" t="n">
+        <v>707.674181945495</v>
+      </c>
+      <c r="L5" t="n">
+        <v>637.6513954552663</v>
+      </c>
+      <c r="M5" t="n">
+        <v>117.1562120493486</v>
+      </c>
+      <c r="N5" t="n">
+        <v>96.15608612452286</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5.857810602467431</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.69352935290874</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.130118760932108</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.08808287613816317</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.1361241196299164</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>100</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7679871363971684</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.943582437970508</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2656992203991956</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8632218856687877</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4814043.127378649</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.62235303903832</v>
+      </c>
+      <c r="H6" t="n">
+        <v>481.403250502561</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1005952978023782</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4305223541495377</v>
+      </c>
+      <c r="K6" t="n">
+        <v>783.1891439096958</v>
+      </c>
+      <c r="L6" t="n">
+        <v>301.7858934071347</v>
+      </c>
+      <c r="M6" t="n">
+        <v>75.273084994195</v>
+      </c>
+      <c r="N6" t="n">
+        <v>26.39881218572697</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.76365424970975</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.15845070265479</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.1226977167644272</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.1715567082683774</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.136267929116733</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>100</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8278886616966199</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.49587244185187</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08956430750318067</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.477596008498141</v>
+      </c>
+      <c r="F7" t="n">
+        <v>297089.6444159501</v>
+      </c>
+      <c r="G7" t="n">
+        <v>11.87960217234545</v>
+      </c>
+      <c r="H7" t="n">
+        <v>29.70777648137778</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2663645287896725</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3276155798275998</v>
+      </c>
+      <c r="K7" t="n">
+        <v>828.8013628503953</v>
+      </c>
+      <c r="L7" t="n">
+        <v>799.0935863690175</v>
+      </c>
+      <c r="M7" t="n">
+        <v>223.3032393991294</v>
+      </c>
+      <c r="N7" t="n">
+        <v>43.65373564599469</v>
+      </c>
+      <c r="O7" t="n">
+        <v>11.16516196995647</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.093819843981993</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1342659466944237</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.05727189543623469</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.1360777376969415</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>100</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3388278260535035</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01249370201627398</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5223791126248993</v>
+      </c>
+      <c r="F8" t="n">
+        <v>972599.0285425581</v>
+      </c>
+      <c r="G8" t="n">
+        <v>43.61449158233285</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-97.25554140509757</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.654500746485207</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5262238326314356</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4866.246698050523</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4963.502239455621</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1600.80654828717</v>
+      </c>
+      <c r="N8" t="n">
+        <v>61.39811228387431</v>
+      </c>
+      <c r="O8" t="n">
+        <v>80.04032741435849</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.914318501318145</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.01555955597455749</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.3613768101618353</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.1492874664950427</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>100</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8970620233039507</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.566191922359488</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.272633505364241</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2082206457457904</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1228589.660744291</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.71330459465342</v>
+      </c>
+      <c r="H9" t="n">
+        <v>122.8577947439697</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1698343586313737</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.415830871101297</v>
+      </c>
+      <c r="K9" t="n">
+        <v>632.360870638091</v>
+      </c>
+      <c r="L9" t="n">
+        <v>509.5030758941213</v>
+      </c>
+      <c r="M9" t="n">
+        <v>73.358555006949</v>
+      </c>
+      <c r="N9" t="n">
+        <v>96.68772816535029</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.66792775034745</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.802597727128686</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.1440785654413364</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.1357422000316355</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.1360101056283251</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>100</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6917955468729284</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.577665006786486</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.480929594383712</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1645085517060991</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3712887.946213454</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12.60905337021697</v>
+      </c>
+      <c r="H10" t="n">
+        <v>371.2875337160084</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1669599550291007</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4634927134817479</v>
+      </c>
+      <c r="K10" t="n">
+        <v>872.1673988033104</v>
+      </c>
+      <c r="L10" t="n">
+        <v>500.8798650873021</v>
+      </c>
+      <c r="M10" t="n">
+        <v>41.58612868403125</v>
+      </c>
+      <c r="N10" t="n">
+        <v>127.2736260436166</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.079306434201563</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6.078711347398758</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.1047165435864196</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.2220556694218396</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.1367205004734887</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>100</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8085382395867221</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.723759325638311</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9666072814645312</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1463454960311175</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2401320.924913233</v>
+      </c>
+      <c r="G11" t="n">
+        <v>17.63946525650164</v>
+      </c>
+      <c r="H11" t="n">
+        <v>240.1303285447976</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1588201312601561</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.7231531315649258</v>
+      </c>
+      <c r="K11" t="n">
+        <v>716.5907223252659</v>
+      </c>
+      <c r="L11" t="n">
+        <v>476.4603937804683</v>
+      </c>
+      <c r="M11" t="n">
+        <v>20.69092627742002</v>
+      </c>
+      <c r="N11" t="n">
+        <v>138.8623570967471</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.034546313871001</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6.833145037735701</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.1308128484676545</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.4562259351212799</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.1361143479759914</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>150</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6685877219985668</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.086273404466786</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.03353253328006645</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9667752867604188</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7818024.111418466</v>
+      </c>
+      <c r="G12" t="n">
+        <v>15.90408748506455</v>
+      </c>
+      <c r="H12" t="n">
+        <v>781.8008207330981</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.4158087184740853</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3793956557791421</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2652.940053866482</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1871.139233133384</v>
+      </c>
+      <c r="M12" t="n">
+        <v>596.4357012027208</v>
+      </c>
+      <c r="N12" t="n">
+        <v>30.57239944871003</v>
+      </c>
+      <c r="O12" t="n">
+        <v>29.82178506013604</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.034366531390055</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.09865968864344431</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.1434026276564164</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.1373333394792815</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>150</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9508530646156123</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.825787157993203</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6159533718375179</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1692472549522959</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4816493.451845176</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13.84058240407051</v>
+      </c>
+      <c r="H13" t="n">
+        <v>481.6479611262772</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1005234814056241</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5915056387979014</v>
+      </c>
+      <c r="K13" t="n">
+        <v>934.0036274515857</v>
+      </c>
+      <c r="L13" t="n">
+        <v>452.3556663253085</v>
+      </c>
+      <c r="M13" t="n">
+        <v>32.46999028568642</v>
+      </c>
+      <c r="N13" t="n">
+        <v>118.3876944604801</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.623499514284321</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5.908515327364456</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.1485982314663845</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.3069068645970853</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.1360005427344316</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>150</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7062402067166575</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1797141196865725</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.03019361982336222</v>
+      </c>
+      <c r="F14" t="n">
+        <v>899284.8014671225</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16.88526620716674</v>
+      </c>
+      <c r="H14" t="n">
+        <v>89.92679162009154</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5192380968928848</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.3250252134654524</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2426.498227638073</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2336.571436017982</v>
+      </c>
+      <c r="M14" t="n">
+        <v>111.287861159049</v>
+      </c>
+      <c r="N14" t="n">
+        <v>670.1581286647743</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5.564393057952453</v>
+      </c>
+      <c r="P14" t="n">
+        <v>33.11957976056429</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1083630892515209</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.08008049573060988</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.1365816284833217</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>150</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9932002245429918</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.246501475920216</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5062255126948026</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2149697814972577</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5029627.774308899</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12.54872939893367</v>
+      </c>
+      <c r="H15" t="n">
+        <v>502.96152255795</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.08836479349435843</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5390716764523249</v>
+      </c>
+      <c r="K15" t="n">
+        <v>900.603093282563</v>
+      </c>
+      <c r="L15" t="n">
+        <v>397.641570724613</v>
+      </c>
+      <c r="M15" t="n">
+        <v>39.50808384495185</v>
+      </c>
+      <c r="N15" t="n">
+        <v>93.04049350497375</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.975404192247592</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.651816608990492</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.1499723835925815</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.2530992926554306</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.1360000002043129</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>150</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8568956262460158</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.132384974591397</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2367481891244713</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3685090259654434</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6677426.344731124</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9.796445633789947</v>
+      </c>
+      <c r="H16" t="n">
+        <v>667.741654828549</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.09331961958356656</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.3965026621059308</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1087.679942954599</v>
+      </c>
+      <c r="L16" t="n">
+        <v>419.9382881260495</v>
+      </c>
+      <c r="M16" t="n">
+        <v>84.47794288929038</v>
+      </c>
+      <c r="N16" t="n">
+        <v>56.11585233968507</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4.223897144464519</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.713637738940413</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.138884928804007</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.1215800766465193</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.1360376566554046</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>150</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7451537587760373</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.81116374057136</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6323874239559003</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5387818139096374</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12293287.19329439</v>
+      </c>
+      <c r="G17" t="n">
+        <v>12.4493061229717</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1229.327474398827</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04842917105212956</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5740361350964553</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1447.25874413341</v>
+      </c>
+      <c r="L17" t="n">
+        <v>217.931269734583</v>
+      </c>
+      <c r="M17" t="n">
+        <v>31.62618237233431</v>
+      </c>
+      <c r="N17" t="n">
+        <v>42.96597240583949</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.581309118616716</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.856038890295054</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.1176525954360414</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.319994473494281</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.136389066166133</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>150</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8303983347614358</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8411805692574876</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.04511293172365438</v>
+      </c>
+      <c r="F18" t="n">
+        <v>82867.79627497288</v>
+      </c>
+      <c r="G18" t="n">
+        <v>19.64955239862611</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8.284814672257426</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.3125559019629728</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.6699217179683323</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1414.786373505635</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1406.501558833378</v>
+      </c>
+      <c r="M18" t="n">
+        <v>23.77610792609493</v>
+      </c>
+      <c r="N18" t="n">
+        <v>445.9206867639151</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.188805396304747</v>
+      </c>
+      <c r="P18" t="n">
+        <v>22.16659307636314</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.1346925831829741</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.3991582732120303</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.1360708615733278</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>150</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9883847347812058</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.50402848966729</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.2342979149238905</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1195251615436893</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1427571.531518435</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11.43037381904094</v>
+      </c>
+      <c r="H19" t="n">
+        <v>142.7560101144616</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1684655251763013</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4030531657757455</v>
+      </c>
+      <c r="K19" t="n">
+        <v>900.8508734078174</v>
+      </c>
+      <c r="L19" t="n">
+        <v>758.0948632933558</v>
+      </c>
+      <c r="M19" t="n">
+        <v>85.36140838682586</v>
+      </c>
+      <c r="N19" t="n">
+        <v>167.3409268092092</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4.268070419341293</v>
+      </c>
+      <c r="P19" t="n">
+        <v>8.366439225722996</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.1499196781948888</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.1171334858468802</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.1360000017339766</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>150</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9113271988670436</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.247126383860358</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7546953753195714</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5451183774237817</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7830568.132443351</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13.99737201228703</v>
+      </c>
+      <c r="H20" t="n">
+        <v>783.0554135071338</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.04244120610672372</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.657427394507628</v>
+      </c>
+      <c r="K20" t="n">
+        <v>974.0408409873905</v>
+      </c>
+      <c r="L20" t="n">
+        <v>190.9854274802567</v>
+      </c>
+      <c r="M20" t="n">
+        <v>26.50075865581012</v>
+      </c>
+      <c r="N20" t="n">
+        <v>37.3969364740984</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.325037932790506</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.834463928231478</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.14556116953277</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.3758605329570375</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.1360056920178205</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>150</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7407665048750885</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.328337968047039</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6289852150779122</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2223631293120998</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12719248.52232483</v>
+      </c>
+      <c r="G21" t="n">
+        <v>12.63469030370069</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1271.923588763453</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0838482259225595</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.547886289262475</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1649.240605414971</v>
+      </c>
+      <c r="L21" t="n">
+        <v>377.3170166515177</v>
+      </c>
+      <c r="M21" t="n">
+        <v>31.79724979310143</v>
+      </c>
+      <c r="N21" t="n">
+        <v>95.99114924057814</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.589862489655071</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.497148439552858</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.1166472012568623</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.2948563527501451</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.1363827352554675</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>200</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6005973767369035</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.440766807989856</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2218779226555964</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2982513907615214</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15024334.57224511</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9.052995778547524</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1502.432551924933</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0849794894155201</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3676702995118561</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2012.309488418053</v>
+      </c>
+      <c r="L22" t="n">
+        <v>509.8769364931206</v>
+      </c>
+      <c r="M22" t="n">
+        <v>90.13965770287307</v>
+      </c>
+      <c r="N22" t="n">
+        <v>86.20021934694486</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4.506982885143653</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.352876234530585</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.07977200159188062</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.1495941362278033</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.1383041616921722</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>200</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6845578255975708</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.183352365579319</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.05281618539862254</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1248564698058128</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2722415.226525531</v>
+      </c>
+      <c r="G23" t="n">
+        <v>11.00324079463487</v>
+      </c>
+      <c r="H23" t="n">
+        <v>272.2404223284736</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.2734080155944099</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.2767540241373334</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1912.688515894933</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1640.44809356646</v>
+      </c>
+      <c r="M23" t="n">
+        <v>378.6718001130313</v>
+      </c>
+      <c r="N23" t="n">
+        <v>172.1243816914579</v>
+      </c>
+      <c r="O23" t="n">
+        <v>18.93359000565157</v>
+      </c>
+      <c r="P23" t="n">
+        <v>8.009196492222499</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.1028528144115194</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.0370946459369761</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.136806563788838</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>200</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9436290816418174</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.840528670778784</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5513462991827768</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.1068107141771462</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5655402.709364892</v>
+      </c>
+      <c r="G24" t="n">
+        <v>13.40655844263878</v>
+      </c>
+      <c r="H24" t="n">
+        <v>565.5389302806449</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1118880948013944</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5584398273305444</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1236.867499089011</v>
+      </c>
+      <c r="L24" t="n">
+        <v>671.3285688083662</v>
+      </c>
+      <c r="M24" t="n">
+        <v>36.27484219925778</v>
+      </c>
+      <c r="N24" t="n">
+        <v>187.6284546209927</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.813742109962889</v>
+      </c>
+      <c r="P24" t="n">
+        <v>9.362356648430367</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.1481650432438558</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.2742738492417919</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.1360009348448967</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>200</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9557013115431328</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.865103589610894</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7702354426252852</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5974080108443648</v>
+      </c>
+      <c r="F25" t="n">
+        <v>10535123.71885201</v>
+      </c>
+      <c r="G25" t="n">
+        <v>13.98894657507856</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1053.510972990543</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.02980051687083334</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.6696468118830948</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1232.314074215543</v>
+      </c>
+      <c r="L25" t="n">
+        <v>178.803101225</v>
+      </c>
+      <c r="M25" t="n">
+        <v>25.9660863330719</v>
+      </c>
+      <c r="N25" t="n">
+        <v>33.71344236055472</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.298304316653595</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.673897875233745</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.1488573479548239</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.3847891026350059</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.1360003612932651</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>200</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8838747358615875</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.844272470950358</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.149887957366701</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8027489304997532</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8129019.849062082</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8.847198315908756</v>
+      </c>
+      <c r="H26" t="n">
+        <v>812.9011001863767</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0797130987406855</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.3626468170547523</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1291.17969263049</v>
+      </c>
+      <c r="L26" t="n">
+        <v>478.278592444113</v>
+      </c>
+      <c r="M26" t="n">
+        <v>133.4330012321803</v>
+      </c>
+      <c r="N26" t="n">
+        <v>26.53259932803936</v>
+      </c>
+      <c r="O26" t="n">
+        <v>6.671650061609014</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.245719504574672</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1425353370673541</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.08409432805118273</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1360171519362156</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>200</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7451309929468004</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.856989907983422</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8568398505825292</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1698448019275695</v>
+      </c>
+      <c r="F27" t="n">
+        <v>18098718.10464375</v>
+      </c>
+      <c r="G27" t="n">
+        <v>14.39221215499735</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1809.870371243159</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.07314640104901343</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.646464206700854</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2248.74877753724</v>
+      </c>
+      <c r="L27" t="n">
+        <v>438.8784062940805</v>
+      </c>
+      <c r="M27" t="n">
+        <v>23.34158476219663</v>
+      </c>
+      <c r="N27" t="n">
+        <v>125.5495457660816</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.167079238109831</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5.887728023766376</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.1176474074163923</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.3924582898942628</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.1363585093901989</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>200</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9818103137325263</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.08170140198754006</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1211344922478956</v>
+      </c>
+      <c r="F28" t="n">
+        <v>218389.8693626298</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10.63261432874656</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-21.83792367483011</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.2049630251146888</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.3266676913226394</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1207.940227013303</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1229.778150688133</v>
+      </c>
+      <c r="M28" t="n">
+        <v>244.7938409067952</v>
+      </c>
+      <c r="N28" t="n">
+        <v>165.1454439100428</v>
+      </c>
+      <c r="O28" t="n">
+        <v>12.23969204533976</v>
+      </c>
+      <c r="P28" t="n">
+        <v>8.255287007383087</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.1498038885180323</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.04086379242029228</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.1360000103843148</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>200</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9320956468631748</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5.706439921823185</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.3793227930332381</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.399713372806304</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9536579.281807676</v>
+      </c>
+      <c r="G29" t="n">
+        <v>10.49428589667432</v>
+      </c>
+      <c r="H29" t="n">
+        <v>953.6568787521779</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.05156513828284807</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.473149156550868</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1263.047708449266</v>
+      </c>
+      <c r="L29" t="n">
+        <v>309.3908296970884</v>
+      </c>
+      <c r="M29" t="n">
+        <v>52.72554238059589</v>
+      </c>
+      <c r="N29" t="n">
+        <v>50.58917423209746</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.636277119029795</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.501792704555289</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.1473586421158803</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.1897885441967773</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.1360019702382104</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>200</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9671603928352105</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.583645977170243</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5635782253062112</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.07380696339928139</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2870301.473476321</v>
+      </c>
+      <c r="G30" t="n">
+        <v>14.39810184673671</v>
+      </c>
+      <c r="H30" t="n">
+        <v>287.0287075374474</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.153275474310224</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5666296180266113</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1206.681553398792</v>
+      </c>
+      <c r="L30" t="n">
+        <v>919.6528458613443</v>
+      </c>
+      <c r="M30" t="n">
+        <v>35.48753145871333</v>
+      </c>
+      <c r="N30" t="n">
+        <v>271.1065547536842</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.774376572935667</v>
+      </c>
+      <c r="P30" t="n">
+        <v>13.54885709889179</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.1493671023364939</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.281262406431238</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.1360001092588794</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>200</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9122300356407046</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.835690641777551</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2961537857482541</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5814848407790202</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9445135.301350109</v>
+      </c>
+      <c r="G31" t="n">
+        <v>9.666093746629018</v>
+      </c>
+      <c r="H31" t="n">
+        <v>944.5125635256363</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.05127173619703039</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4320329511344205</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1252.142980707819</v>
+      </c>
+      <c r="L31" t="n">
+        <v>307.6304171821824</v>
+      </c>
+      <c r="M31" t="n">
+        <v>67.5324813068607</v>
+      </c>
+      <c r="N31" t="n">
+        <v>35.31913375294536</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3.376624065343035</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.719735287785476</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.1456483167217212</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.1503791264936227</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.1360055079190766</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>250</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8725678310691065</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.985100517571361</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.661984428373395</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5310279004273112</v>
+      </c>
+      <c r="F32" t="n">
+        <v>15327808.81445248</v>
+      </c>
+      <c r="G32" t="n">
+        <v>12.6880682306472</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1532.779612638425</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.02779955651538565</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.6066038550169743</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1741.276286503817</v>
+      </c>
+      <c r="L32" t="n">
+        <v>208.4966738653923</v>
+      </c>
+      <c r="M32" t="n">
+        <v>30.21219101655201</v>
+      </c>
+      <c r="N32" t="n">
+        <v>40.09864815583369</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.5106095508276</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.883140225203446</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.1410843716321968</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.3294948203130744</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.1360246630717031</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>250</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5822300154058043</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.109103706314698</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.08196124982561803</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1482270531317789</v>
+      </c>
+      <c r="F33" t="n">
+        <v>17559476.95789162</v>
+      </c>
+      <c r="G33" t="n">
+        <v>8.761904429087569</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1755.946819598719</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.1585596259689737</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.2795355954854047</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2945.144014366021</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1189.197194767303</v>
+      </c>
+      <c r="M33" t="n">
+        <v>244.017752810655</v>
+      </c>
+      <c r="N33" t="n">
+        <v>161.1079001131709</v>
+      </c>
+      <c r="O33" t="n">
+        <v>12.20088764053275</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6.746406805449786</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.0744465962625098</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.06656979833139265</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.1385192008915023</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>250</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9421356590632459</v>
+      </c>
+      <c r="C34" t="n">
+        <v>9.699979710336478</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1496178254048927</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.2036064520277188</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9006560.761083955</v>
+      </c>
+      <c r="G34" t="n">
+        <v>9.039243057174115</v>
+      </c>
+      <c r="H34" t="n">
+        <v>900.6551721840898</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.09289498171489222</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3590671711438136</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1597.367535045782</v>
+      </c>
+      <c r="L34" t="n">
+        <v>696.7123628616918</v>
+      </c>
+      <c r="M34" t="n">
+        <v>133.6739118208436</v>
+      </c>
+      <c r="N34" t="n">
+        <v>98.73095656398918</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6.683695591042182</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4.911435713559122</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.1480685292801432</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.0749976018357017</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.1360010400279687</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>250</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9343705137974105</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.277482506879564</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8236347965491637</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.2346309177352743</v>
+      </c>
+      <c r="F35" t="n">
+        <v>11994583.15509358</v>
+      </c>
+      <c r="G35" t="n">
+        <v>14.73663151629399</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1199.456841846207</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.04398143520527316</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.6928501406094265</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1529.317605885755</v>
+      </c>
+      <c r="L35" t="n">
+        <v>329.8607640395486</v>
+      </c>
+      <c r="M35" t="n">
+        <v>24.28260690757032</v>
+      </c>
+      <c r="N35" t="n">
+        <v>85.88634257857336</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.214130345378516</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4.262012907984548</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.1475287348270165</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.4093196897847449</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.1360017159976653</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>250</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8185180010549651</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.280016029851527</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.04309867196228045</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.3332124836177713</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3342883.688599465</v>
+      </c>
+      <c r="G36" t="n">
+        <v>10.23192195612283</v>
+      </c>
+      <c r="H36" t="n">
+        <v>334.287345667751</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.2109467016763183</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.3006493961298231</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1916.387608240138</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1582.100262572387</v>
+      </c>
+      <c r="M36" t="n">
+        <v>464.0514217585128</v>
+      </c>
+      <c r="N36" t="n">
+        <v>64.96211822933732</v>
+      </c>
+      <c r="O36" t="n">
+        <v>23.20257108792564</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.001088041908723</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.1326294662616182</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.03192085769270978</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.1360990721754951</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>250</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9490418267627997</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7.623835641212763</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.3554429085599291</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.8961726759357629</v>
+      </c>
+      <c r="F37" t="n">
+        <v>13228179.00450595</v>
+      </c>
+      <c r="G37" t="n">
+        <v>9.903516838612491</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1322.816910098911</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.03153785117625969</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.4636379907543648</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1559.350793920858</v>
+      </c>
+      <c r="L37" t="n">
+        <v>236.5338838219477</v>
+      </c>
+      <c r="M37" t="n">
+        <v>56.26782675459657</v>
+      </c>
+      <c r="N37" t="n">
+        <v>22.70663795703628</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.813391337729828</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.11585638220427</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.1484948887055432</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.1791424657943652</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.1360006362544565</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>250</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9165286746995371</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5.961215612229285</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.3651538467092807</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.09663259162379334</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8370004.269165258</v>
+      </c>
+      <c r="G38" t="n">
+        <v>11.35565004021853</v>
+      </c>
+      <c r="H38" t="n">
+        <v>836.9992913515217</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.1049750757157596</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.4628074262951671</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1624.312359219719</v>
+      </c>
+      <c r="L38" t="n">
+        <v>787.313067868197</v>
+      </c>
+      <c r="M38" t="n">
+        <v>54.77143450695485</v>
+      </c>
+      <c r="N38" t="n">
+        <v>208.0146278898149</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2.738571725347742</v>
+      </c>
+      <c r="P38" t="n">
+        <v>10.34847542838513</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.1460521560313208</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.1807508470077163</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.13600442325613</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>250</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8819642969111102</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.333902328073036</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.1283168759673803</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.8974960855269896</v>
+      </c>
+      <c r="F39" t="n">
+        <v>10577621.29858573</v>
+      </c>
+      <c r="G39" t="n">
+        <v>8.508139836725181</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1057.761279044589</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.07181664248638464</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.3535903493498744</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1596.386097692474</v>
+      </c>
+      <c r="L39" t="n">
+        <v>538.6248186478847</v>
+      </c>
+      <c r="M39" t="n">
+        <v>155.8641437396297</v>
+      </c>
+      <c r="N39" t="n">
+        <v>24.37408383651628</v>
+      </c>
+      <c r="O39" t="n">
+        <v>7.793207186981486</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.11421098779815</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.1422983532140757</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.07527321762145288</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.1360187785143459</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>250</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8121329751542554</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.080435209188166</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.1125275830598435</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.3895753758539753</v>
+      </c>
+      <c r="F40" t="n">
+        <v>12267670.74905609</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8.558493279434991</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1226.766219056281</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.09304061972973429</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.3348840442420152</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1924.570867029289</v>
+      </c>
+      <c r="L40" t="n">
+        <v>697.8046479730071</v>
+      </c>
+      <c r="M40" t="n">
+        <v>177.7342004170104</v>
+      </c>
+      <c r="N40" t="n">
+        <v>56.63204985854492</v>
+      </c>
+      <c r="O40" t="n">
+        <v>8.88671002085052</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.566897350244309</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.1314758215249497</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.06729282855467621</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.1361153941623893</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>250</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8906281149406674</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5.621699937502179</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.1985003267679724</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.4117063136545969</v>
+      </c>
+      <c r="F41" t="n">
+        <v>12492960.49180177</v>
+      </c>
+      <c r="G41" t="n">
+        <v>8.830928808614919</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1249.295166087297</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.06021201600639006</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.3813344244243559</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1700.885286135222</v>
+      </c>
+      <c r="L41" t="n">
+        <v>451.5901200479254</v>
+      </c>
+      <c r="M41" t="n">
+        <v>100.7555016439749</v>
+      </c>
+      <c r="N41" t="n">
+        <v>50.3726488340718</v>
+      </c>
+      <c r="O41" t="n">
+        <v>5.037775082198746</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.428915872392851</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.1433460062048247</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.1019752123777668</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.1360132058417644</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>300</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9491025553317335</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.330442185418157</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.09607870563067678</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1159856360400336</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6976121.684662309</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9.191247297999777</v>
+      </c>
+      <c r="H42" t="n">
+        <v>697.611249341501</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.1269695607858394</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.3325928041141495</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1840.337296414055</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1142.726047072554</v>
+      </c>
+      <c r="M42" t="n">
+        <v>208.1626711009129</v>
+      </c>
+      <c r="N42" t="n">
+        <v>172.9014442490308</v>
+      </c>
+      <c r="O42" t="n">
+        <v>10.40813355504565</v>
+      </c>
+      <c r="P42" t="n">
+        <v>8.621757263587705</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.1484984110232885</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.04809376901721151</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.1360006240736495</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>300</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9657265279244895</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.107284576817186</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.1885143281685631</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.2236213683005688</v>
+      </c>
+      <c r="F43" t="n">
+        <v>12303481.52412665</v>
+      </c>
+      <c r="G43" t="n">
+        <v>8.896689993160678</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1230.347262743666</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.06522352775131025</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.3796109719067237</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1817.359012505458</v>
+      </c>
+      <c r="L43" t="n">
+        <v>587.0117497617923</v>
+      </c>
+      <c r="M43" t="n">
+        <v>106.0927314878511</v>
+      </c>
+      <c r="N43" t="n">
+        <v>89.64833201936634</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5.304636574392553</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4.47184456297532</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.1493113014870861</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.09429954067457133</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.1360001297450663</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>300</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8451461185989597</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5.493571110251316</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.04100410550066624</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.3815173764548733</v>
+      </c>
+      <c r="F44" t="n">
+        <v>6409367.633623244</v>
+      </c>
+      <c r="G44" t="n">
+        <v>9.666461897533257</v>
+      </c>
+      <c r="H44" t="n">
+        <v>640.9357967161347</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.1810186186077525</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.3023044762689103</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2270.103364185907</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1629.167567469772</v>
+      </c>
+      <c r="M44" t="n">
+        <v>487.756037006466</v>
+      </c>
+      <c r="N44" t="n">
+        <v>56.73860229188938</v>
+      </c>
+      <c r="O44" t="n">
+        <v>24.3878018503233</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.621112593329762</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.1370975066197835</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.02915338988729792</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.1360535797618288</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>300</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9946628436220246</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6.150048294116012</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.2871806994021973</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.09626468551791456</v>
+      </c>
+      <c r="F45" t="n">
+        <v>9684122.370845648</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10.44073423402421</v>
+      </c>
+      <c r="H45" t="n">
+        <v>968.4111930111413</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.09246882991921546</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.4295678817819948</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1800.63066228408</v>
+      </c>
+      <c r="L45" t="n">
+        <v>832.2194692729391</v>
+      </c>
+      <c r="M45" t="n">
+        <v>69.64256317235983</v>
+      </c>
+      <c r="N45" t="n">
+        <v>207.7656356995788</v>
+      </c>
+      <c r="O45" t="n">
+        <v>3.482128158617991</v>
+      </c>
+      <c r="P45" t="n">
+        <v>10.38802541783511</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.1499829696691465</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.1435849120352283</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.13600000007762</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>300</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.991584823033683</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.02932868461649585</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.3534141445311024</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4130285.262195366</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10.93640479610873</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-413.0274325790569</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.2461751937548919</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.3006450460505444</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1802.54931121497</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2215.576743794027</v>
+      </c>
+      <c r="M46" t="n">
+        <v>681.9262527972717</v>
+      </c>
+      <c r="N46" t="n">
+        <v>56.60357737960643</v>
+      </c>
+      <c r="O46" t="n">
+        <v>34.09631263986358</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.829541532149952</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.1499577492469626</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.01468729632475461</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.1360000004788272</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>300</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9658534404103155</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.785536122609411</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.1251890347362012</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1568229640952328</v>
+      </c>
+      <c r="F47" t="n">
+        <v>9577866.642359456</v>
+      </c>
+      <c r="G47" t="n">
+        <v>8.875177013244173</v>
+      </c>
+      <c r="H47" t="n">
+        <v>957.7857767182444</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.09581022070167694</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.3479486299605317</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1820.077763033337</v>
+      </c>
+      <c r="L47" t="n">
+        <v>862.2919863150925</v>
+      </c>
+      <c r="M47" t="n">
+        <v>159.7584009026355</v>
+      </c>
+      <c r="N47" t="n">
+        <v>127.742220454304</v>
+      </c>
+      <c r="O47" t="n">
+        <v>7.987920045131776</v>
+      </c>
+      <c r="P47" t="n">
+        <v>6.376617134928893</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.1493163332660072</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.06263216894112626</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.1360001277533982</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>300</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8786201636651347</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7.029499382598219</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.1394357012483588</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1439134054511356</v>
+      </c>
+      <c r="F48" t="n">
+        <v>13187487.30049902</v>
+      </c>
+      <c r="G48" t="n">
+        <v>8.850541325438796</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1318.74784499577</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.09472523870841409</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.3478018275635257</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2171.274993371497</v>
+      </c>
+      <c r="L48" t="n">
+        <v>852.5271483757269</v>
+      </c>
+      <c r="M48" t="n">
+        <v>143.4352882435509</v>
+      </c>
+      <c r="N48" t="n">
+        <v>141.6244117618121</v>
+      </c>
+      <c r="O48" t="n">
+        <v>7.171764412177547</v>
+      </c>
+      <c r="P48" t="n">
+        <v>6.948623006072497</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.1418754799900708</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.06990683025430178</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.1360195173191531</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>300</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8524797062036213</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8.319145492246534</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.6098453708007705</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.4683046548472543</v>
+      </c>
+      <c r="F49" t="n">
+        <v>22140051.76623</v>
+      </c>
+      <c r="G49" t="n">
+        <v>12.0634637063877</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2214.003970276629</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.02603796949591233</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5771352158234727</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2448.34569573984</v>
+      </c>
+      <c r="L49" t="n">
+        <v>234.341725463211</v>
+      </c>
+      <c r="M49" t="n">
+        <v>32.79519851686104</v>
+      </c>
+      <c r="N49" t="n">
+        <v>46.62444419578215</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.639759925843052</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2.135362076053178</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.1382268063941257</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.3028636556256674</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.1360447538036796</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>300</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9801455841526423</v>
+      </c>
+      <c r="C50" t="n">
+        <v>8.483730931239437</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.528213412278681</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.3450174314843252</v>
+      </c>
+      <c r="F50" t="n">
+        <v>15244027.91099312</v>
+      </c>
+      <c r="G50" t="n">
+        <v>11.63522026254199</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1524.401627577285</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.03195962439150273</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5498013887355968</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1812.03824710081</v>
+      </c>
+      <c r="L50" t="n">
+        <v>287.6366195235246</v>
+      </c>
+      <c r="M50" t="n">
+        <v>37.86348384021753</v>
+      </c>
+      <c r="N50" t="n">
+        <v>58.03904120400905</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.893174192010877</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2.898404279742695</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.1497666119298625</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.2640347620675448</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.1360000147381895</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>300</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.8870313531948189</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.911154610452798</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.8180435298108155</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.03959349232174481</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5230069.511306808</v>
+      </c>
+      <c r="G51" t="n">
+        <v>17.10677011983787</v>
+      </c>
+      <c r="H51" t="n">
+        <v>523.0052404536689</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.1770378409546418</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.6783006650372518</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2116.345809045445</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1593.340568591776</v>
+      </c>
+      <c r="M51" t="n">
+        <v>24.44857672136994</v>
+      </c>
+      <c r="N51" t="n">
+        <v>507.4306610522149</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.222428836068497</v>
+      </c>
+      <c r="P51" t="n">
+        <v>25.2566758161618</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.1429195294179557</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.3993666122132828</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.1360145234060133</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>350</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.7986029226337785</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.877856390842739</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.1754526618994109</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.09997866343933282</v>
+      </c>
+      <c r="F52" t="n">
+        <v>16173032.91061576</v>
+      </c>
+      <c r="G52" t="n">
+        <v>8.839824542696975</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1617.302407079122</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.09134630081335587</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.3506449263214929</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2576.438565619359</v>
+      </c>
+      <c r="L52" t="n">
+        <v>959.1361585402365</v>
+      </c>
+      <c r="M52" t="n">
+        <v>113.9908610304598</v>
+      </c>
+      <c r="N52" t="n">
+        <v>208.5604466103016</v>
+      </c>
+      <c r="O52" t="n">
+        <v>5.699543051522991</v>
+      </c>
+      <c r="P52" t="n">
+        <v>10.00213411141269</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.1289310595793656</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.08557131311087421</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.1361425536312532</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>350</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.8180542484547155</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4.105807563930408</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.1039340256948312</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.5426862579008409</v>
+      </c>
+      <c r="F53" t="n">
+        <v>19599038.86268571</v>
+      </c>
+      <c r="G53" t="n">
+        <v>8.067983289770437</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1959.903079470242</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.06683373312418787</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.3365654313643339</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2661.657277274215</v>
+      </c>
+      <c r="L53" t="n">
+        <v>701.7541978039726</v>
+      </c>
+      <c r="M53" t="n">
+        <v>192.4297636533733</v>
+      </c>
+      <c r="N53" t="n">
+        <v>43.80560023666074</v>
+      </c>
+      <c r="O53" t="n">
+        <v>9.621488182668664</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.842685318526564</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.1325467176284605</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.0679088310160974</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.136109882719776</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>350</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.952714790218351</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.625353721724934</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.4707709967839081</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.7109553750415336</v>
+      </c>
+      <c r="F54" t="n">
+        <v>19306115.35050041</v>
+      </c>
+      <c r="G54" t="n">
+        <v>10.81801241754701</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1930.6104532488</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.0202650532406207</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.52063556763673</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2143.393512275317</v>
+      </c>
+      <c r="L54" t="n">
+        <v>212.7830590265173</v>
+      </c>
+      <c r="M54" t="n">
+        <v>42.48350076073259</v>
+      </c>
+      <c r="N54" t="n">
+        <v>28.60069795592646</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2.12417503803663</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.406558041623331</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.1487007551927491</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.2359343398909092</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.1360004725530717</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>350</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9280744392000717</v>
+      </c>
+      <c r="C55" t="n">
+        <v>5.682069921133754</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.08273236082717028</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.3502273093308554</v>
+      </c>
+      <c r="F55" t="n">
+        <v>13245146.98158036</v>
+      </c>
+      <c r="G55" t="n">
+        <v>8.228258822845815</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1324.513875332154</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.08559240086729343</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.3258205402749973</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2223.234084438735</v>
+      </c>
+      <c r="L55" t="n">
+        <v>898.720209106581</v>
+      </c>
+      <c r="M55" t="n">
+        <v>241.7433734519004</v>
+      </c>
+      <c r="N55" t="n">
+        <v>58.1921596243735</v>
+      </c>
+      <c r="O55" t="n">
+        <v>12.08716867259502</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2.855288475106641</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.1470448648293879</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.04277318287004129</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.1360024925755682</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>350</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.8068294795962485</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.608983040313068</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.3146958802126414</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.4169914266755637</v>
+      </c>
+      <c r="F56" t="n">
+        <v>21469704.3519891</v>
+      </c>
+      <c r="G56" t="n">
+        <v>9.263736531930725</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2146.969508825257</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.03335431929533857</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.4298325073011977</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2497.189861426311</v>
+      </c>
+      <c r="L56" t="n">
+        <v>350.2203526010549</v>
+      </c>
+      <c r="M56" t="n">
+        <v>63.55342175590577</v>
+      </c>
+      <c r="N56" t="n">
+        <v>55.79873527449313</v>
+      </c>
+      <c r="O56" t="n">
+        <v>3.177671087795289</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2.398130839217567</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.1304943416218542</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.1632026829984627</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.1361354826808808</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>350</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9545878094366727</v>
+      </c>
+      <c r="C57" t="n">
+        <v>7.824756425909515</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.07931760618973327</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.2305380933185757</v>
+      </c>
+      <c r="F57" t="n">
+        <v>11501601.06313954</v>
+      </c>
+      <c r="G57" t="n">
+        <v>8.433722187634483</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1150.159262941735</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0969123151667434</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.3247737942149807</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2167.738572192541</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1017.579309250805</v>
+      </c>
+      <c r="M57" t="n">
+        <v>252.1508270453674</v>
+      </c>
+      <c r="N57" t="n">
+        <v>87.18663473185759</v>
+      </c>
+      <c r="O57" t="n">
+        <v>12.60754135226837</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4.337677932549401</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.1488001005946828</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.03997329572176283</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.136000397898535</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>350</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.8422886167568733</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.983676769629628</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5671257072451399</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.293011629329144</v>
+      </c>
+      <c r="F58" t="n">
+        <v>21899502.93864937</v>
+      </c>
+      <c r="G58" t="n">
+        <v>11.6216877374347</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2189.949131696163</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.03057269422965509</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.55051169264208</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2510.962421107542</v>
+      </c>
+      <c r="L58" t="n">
+        <v>321.0132894113784</v>
+      </c>
+      <c r="M58" t="n">
+        <v>35.26555002620434</v>
+      </c>
+      <c r="N58" t="n">
+        <v>73.4799814059007</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.763277501310217</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3.412833826048201</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.1366453663068551</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.277809112383663</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.136057213951562</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>350</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9449247075780637</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.480616870974933</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.4889716644005461</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.3504510757275101</v>
+      </c>
+      <c r="F59" t="n">
+        <v>18363380.12284475</v>
+      </c>
+      <c r="G59" t="n">
+        <v>11.1288399660737</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1836.336899400478</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.02811318080916361</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5283288174945215</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2131.525297896696</v>
+      </c>
+      <c r="L59" t="n">
+        <v>295.1883984962179</v>
+      </c>
+      <c r="M59" t="n">
+        <v>40.90216561836761</v>
+      </c>
+      <c r="N59" t="n">
+        <v>57.70629736218034</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2.04510828091838</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2.853465345837718</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.1482468509845959</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.244081106164113</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.1360008603458127</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>350</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9546346361836898</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.398968966530791</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.3953913305459076</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.09770951068514866</v>
+      </c>
+      <c r="F60" t="n">
+        <v>13540235.6622255</v>
+      </c>
+      <c r="G60" t="n">
+        <v>11.09814155062448</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1354.022456408394</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.07301693882877319</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.4818901387024511</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2120.700314110513</v>
+      </c>
+      <c r="L60" t="n">
+        <v>766.6778577021184</v>
+      </c>
+      <c r="M60" t="n">
+        <v>50.58279849582556</v>
+      </c>
+      <c r="N60" t="n">
+        <v>205.1205485412736</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2.529139924791278</v>
+      </c>
+      <c r="P60" t="n">
+        <v>10.23441825660473</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.1488025353215698</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.1970872082440591</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.1360003951368222</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>350</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.7998913310945761</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5.389887945358471</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.02331943152322113</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.2290005205391792</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1412294.012476082</v>
+      </c>
+      <c r="G61" t="n">
+        <v>11.15258611672758</v>
+      </c>
+      <c r="H61" t="n">
+        <v>141.2282859889965</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.2715988495575541</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.286030456278825</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2993.016206343315</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2851.787920354318</v>
+      </c>
+      <c r="M61" t="n">
+        <v>857.6538403212919</v>
+      </c>
+      <c r="N61" t="n">
+        <v>95.74517668612452</v>
+      </c>
+      <c r="O61" t="n">
+        <v>42.8826920160646</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4.36680230090967</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.1291791313194568</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.02070508232129873</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.1361462426380694</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>400</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8637047016187632</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3.390143044418674</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.484286241303678</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.2867454443553187</v>
+      </c>
+      <c r="F62" t="n">
+        <v>23569211.91807988</v>
+      </c>
+      <c r="G62" t="n">
+        <v>10.86818416518878</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2356.920104989571</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.02850459753069837</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5149046107287407</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2698.975275357952</v>
+      </c>
+      <c r="L62" t="n">
+        <v>342.0551703683804</v>
+      </c>
+      <c r="M62" t="n">
+        <v>41.29789016132452</v>
+      </c>
+      <c r="N62" t="n">
+        <v>74.20661263033537</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.064894508066226</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3.487413731186804</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.1398669058316582</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.2390056619133449</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.1360320429837378</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>400</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9123348740948406</v>
+      </c>
+      <c r="C63" t="n">
+        <v>5.505934261479983</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.1878612240679208</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.8774539937201997</v>
+      </c>
+      <c r="F63" t="n">
+        <v>22110881.09097653</v>
+      </c>
+      <c r="G63" t="n">
+        <v>8.27282698484748</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2211.087281814954</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.03262110278565832</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.3810202464567157</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2602.540515242854</v>
+      </c>
+      <c r="L63" t="n">
+        <v>391.4532334278997</v>
+      </c>
+      <c r="M63" t="n">
+        <v>106.4615654413549</v>
+      </c>
+      <c r="N63" t="n">
+        <v>24.63765964527568</v>
+      </c>
+      <c r="O63" t="n">
+        <v>5.323078272067748</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.139660890664175</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.1456583841290634</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.09935609175502545</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.1360057705726269</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>400</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.8134381090891639</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4.033729188385402</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.1379978897161642</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.8464953583329614</v>
+      </c>
+      <c r="F64" t="n">
+        <v>25398924.59295863</v>
+      </c>
+      <c r="G64" t="n">
+        <v>8.148540432111499</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2539.89164444182</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.04353135861768283</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.3638956629878921</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3062.267947854014</v>
+      </c>
+      <c r="L64" t="n">
+        <v>522.376303412194</v>
+      </c>
+      <c r="M64" t="n">
+        <v>144.929752484884</v>
+      </c>
+      <c r="N64" t="n">
+        <v>31.98010911706548</v>
+      </c>
+      <c r="O64" t="n">
+        <v>7.2464876242442</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.181341386170554</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.1317141364693814</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.09604369267921795</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.1361378338392928</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>400</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9954472036258838</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3.398023658306837</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.3880068421336281</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.9713772513397998</v>
+      </c>
+      <c r="F65" t="n">
+        <v>21839247.08724958</v>
+      </c>
+      <c r="G65" t="n">
+        <v>9.960752917890867</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2183.923712649666</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.01803453056782837</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.480003115326715</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2400.338079463606</v>
+      </c>
+      <c r="L65" t="n">
+        <v>216.4143668139404</v>
+      </c>
+      <c r="M65" t="n">
+        <v>51.54548278071879</v>
+      </c>
+      <c r="N65" t="n">
+        <v>20.59429772698062</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2.577274139035939</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.029466150891141</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.1499876009751685</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.1940155143104154</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.136000000041131</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>400</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.807799337669356</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.008411758175113</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.04990448085271193</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.1455638388319174</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11108074.7844742</v>
+      </c>
+      <c r="G66" t="n">
+        <v>8.636694072819335</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1110.806614778012</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.1360182380276868</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.29581646561328</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2743.025471110254</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1632.218856332242</v>
+      </c>
+      <c r="M66" t="n">
+        <v>400.7656157976674</v>
+      </c>
+      <c r="N66" t="n">
+        <v>146.2626238811068</v>
+      </c>
+      <c r="O66" t="n">
+        <v>20.03828078988337</v>
+      </c>
+      <c r="P66" t="n">
+        <v>6.869838058851282</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.1306753843795586</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.02901949134201505</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.1361215898917063</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>400</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5939101247361228</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.428802959704376</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.3538042170822504</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.4535320367012768</v>
+      </c>
+      <c r="F67" t="n">
+        <v>44720066.64893401</v>
+      </c>
+      <c r="G67" t="n">
+        <v>9.729332022571587</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4472.005691960198</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0317530486610225</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.4547135524675568</v>
+      </c>
+      <c r="K67" t="n">
+        <v>4853.042275892469</v>
+      </c>
+      <c r="L67" t="n">
+        <v>381.03658393227</v>
+      </c>
+      <c r="M67" t="n">
+        <v>56.52843870809633</v>
+      </c>
+      <c r="N67" t="n">
+        <v>83.67647487934016</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2.826421935404817</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2.204915902465032</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.07784175587537606</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.2372590989696869</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.1396126976224938</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>400</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.8901171644587644</v>
+      </c>
+      <c r="C68" t="n">
+        <v>9.199914390873356</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.02150755988185782</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.7288207746073591</v>
+      </c>
+      <c r="F68" t="n">
+        <v>539577.4060709919</v>
+      </c>
+      <c r="G68" t="n">
+        <v>10.77266169259855</v>
+      </c>
+      <c r="H68" t="n">
+        <v>53.95666334092994</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.2398197623238408</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.2988133223060866</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2931.79381122702</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2877.83714788609</v>
+      </c>
+      <c r="M68" t="n">
+        <v>929.9055824956934</v>
+      </c>
+      <c r="N68" t="n">
+        <v>30.33940580339643</v>
+      </c>
+      <c r="O68" t="n">
+        <v>46.49527912478467</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.372079439610835</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.1432861580554974</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.01951282426779806</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.1360143399827912</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>400</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.8400031392564999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.604361178933608</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.03830602673470473</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.3568790595505731</v>
+      </c>
+      <c r="F69" t="n">
+        <v>12127267.66857074</v>
+      </c>
+      <c r="G69" t="n">
+        <v>8.914588759461257</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1212.725875398198</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.1455620718729086</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.3001673661001543</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2959.470737873101</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1746.744862474903</v>
+      </c>
+      <c r="M69" t="n">
+        <v>522.1110541825074</v>
+      </c>
+      <c r="N69" t="n">
+        <v>62.18515294494891</v>
+      </c>
+      <c r="O69" t="n">
+        <v>26.10555270912537</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2.802069701874146</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.1362789062952674</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.02782609933011555</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.1360623604747713</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>400</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.9245448271651561</v>
+      </c>
+      <c r="C70" t="n">
+        <v>7.19467264514986</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.1321917484506077</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.7794534934132576</v>
+      </c>
+      <c r="F70" t="n">
+        <v>20627147.85117367</v>
+      </c>
+      <c r="G70" t="n">
+        <v>7.941306980861121</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2062.713990986669</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.04446633368562619</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.3525990153574299</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2596.309995214183</v>
+      </c>
+      <c r="L70" t="n">
+        <v>533.5960042275143</v>
+      </c>
+      <c r="M70" t="n">
+        <v>151.2953738369898</v>
+      </c>
+      <c r="N70" t="n">
+        <v>27.02543955411789</v>
+      </c>
+      <c r="O70" t="n">
+        <v>7.564768691849489</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1.282950180415461</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.1467557512362428</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.06984015136471096</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.1360031127564761</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>400</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.8670575202314865</v>
+      </c>
+      <c r="C71" t="n">
+        <v>7.368662354587397</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.2227155842272281</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.413379189308052</v>
+      </c>
+      <c r="F71" t="n">
+        <v>25990831.78794103</v>
+      </c>
+      <c r="G71" t="n">
+        <v>8.53485560970374</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2599.082325308542</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.03525253817390978</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.3914902423112772</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3022.112783395459</v>
+      </c>
+      <c r="L71" t="n">
+        <v>423.0304580869173</v>
+      </c>
+      <c r="M71" t="n">
+        <v>89.80063101284718</v>
+      </c>
+      <c r="N71" t="n">
+        <v>52.62341791695207</v>
+      </c>
+      <c r="O71" t="n">
+        <v>4.490031550642358</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2.419086460723584</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.1403356126013221</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.1151249048696773</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.1360297248402778</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>450</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9791406848390598</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.874781586668609</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.05586109805810924</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.1401971359067363</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12044568.88738867</v>
+      </c>
+      <c r="G72" t="n">
+        <v>8.499822459014359</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1204.456038756622</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.1112812223786013</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.3137099005721167</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2706.752540867739</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1502.296502111118</v>
+      </c>
+      <c r="M72" t="n">
+        <v>358.0309140932944</v>
+      </c>
+      <c r="N72" t="n">
+        <v>142.77374660302</v>
+      </c>
+      <c r="O72" t="n">
+        <v>17.90154570466472</v>
+      </c>
+      <c r="P72" t="n">
+        <v>7.132813331259722</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.1497425638298434</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.02796731880538337</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.1360000179368899</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>450</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9832019049297507</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3.630248023073813</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.3706764592255823</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.05927308532246656</v>
+      </c>
+      <c r="F73" t="n">
+        <v>15312494.21859768</v>
+      </c>
+      <c r="G73" t="n">
+        <v>11.16133817825178</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1531.24830572595</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.08698388342076405</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.4710830254918251</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2705.530731906264</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1174.282426180315</v>
+      </c>
+      <c r="M73" t="n">
+        <v>53.95540909661224</v>
+      </c>
+      <c r="N73" t="n">
+        <v>337.497462136645</v>
+      </c>
+      <c r="O73" t="n">
+        <v>2.697770454830612</v>
+      </c>
+      <c r="P73" t="n">
+        <v>16.8710637308594</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.1498325904089028</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.1852504275229807</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.1360000075599416</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>450</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.8389747396980664</v>
+      </c>
+      <c r="C74" t="n">
+        <v>5.502550188094485</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.05815063824202282</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.09198970894419001</v>
+      </c>
+      <c r="F74" t="n">
+        <v>17651406.09799524</v>
+      </c>
+      <c r="G74" t="n">
+        <v>8.562166101533002</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1765.139753582914</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.1257815966007927</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.3023267084758574</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3463.191307693615</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1698.051554110702</v>
+      </c>
+      <c r="M74" t="n">
+        <v>343.9343161937458</v>
+      </c>
+      <c r="N74" t="n">
+        <v>224.416490610799</v>
+      </c>
+      <c r="O74" t="n">
+        <v>17.19671580968729</v>
+      </c>
+      <c r="P74" t="n">
+        <v>10.87078121539332</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.1361126175768445</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.03015462165561517</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.1360594692433977</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>450</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.9251203134132436</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.452538236852664</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.5982255076717674</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.580610472252743</v>
+      </c>
+      <c r="F75" t="n">
+        <v>25672547.98934402</v>
+      </c>
+      <c r="G75" t="n">
+        <v>11.94406592839687</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2567.253604527809</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.01530843670260861</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5818948597172346</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2773.917500013025</v>
+      </c>
+      <c r="L75" t="n">
+        <v>206.6638954852162</v>
+      </c>
+      <c r="M75" t="n">
+        <v>33.43220866298055</v>
+      </c>
+      <c r="N75" t="n">
+        <v>35.96038357045796</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.671610433149028</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1.722325117767932</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.146803758708544</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.2990881075948599</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.1360029934138307</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>450</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.4138791150292608</v>
+      </c>
+      <c r="C76" t="n">
+        <v>10</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.003418412401630988</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.8277236258337576</v>
+      </c>
+      <c r="F76" t="n">
+        <v>14811277.10304834</v>
+      </c>
+      <c r="G76" t="n">
+        <v>39.30371239630113</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1481.123779933594</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1.318666343192651</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.6465192766224055</v>
+      </c>
+      <c r="K76" t="n">
+        <v>19283.11941303438</v>
+      </c>
+      <c r="L76" t="n">
+        <v>17801.99563310079</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5850.669155792212</v>
+      </c>
+      <c r="N76" t="n">
+        <v>112.9127556075518</v>
+      </c>
+      <c r="O76" t="n">
+        <v>292.5334577896106</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1.208132725452545</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.02835832181858552</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.4522654535032566</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.1658955013005634</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>450</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.7146064560994841</v>
+      </c>
+      <c r="C77" t="n">
+        <v>10</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.8479951367669725</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.008052992331349706</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5387625.346341266</v>
+      </c>
+      <c r="G77" t="n">
+        <v>23.4858056513961</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-538.7601860535615</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.5603988479610751</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.6138914346087301</v>
+      </c>
+      <c r="K77" t="n">
+        <v>7026.624261420952</v>
+      </c>
+      <c r="L77" t="n">
+        <v>7565.384447474514</v>
+      </c>
+      <c r="M77" t="n">
+        <v>23.5850409192806</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2505.540227646566</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.17925204596403</v>
+      </c>
+      <c r="P77" t="n">
+        <v>124.177443471177</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.1104283767761723</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.3669427973893439</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.1365202604432138</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>450</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9625516872977152</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3.18677451007696</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.7724885638439756</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.2145786982069331</v>
+      </c>
+      <c r="F78" t="n">
+        <v>23660670.33185055</v>
+      </c>
+      <c r="G78" t="n">
+        <v>13.94334917148077</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2366.065638850138</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.02652192787117607</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.6706455307028627</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2724.111665111016</v>
+      </c>
+      <c r="L78" t="n">
+        <v>358.0460262608769</v>
+      </c>
+      <c r="M78" t="n">
+        <v>25.89035092050829</v>
+      </c>
+      <c r="N78" t="n">
+        <v>93.58453835096634</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.294517546025415</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4.660294839870968</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.149179580973302</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.385465764895958</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.1360001848336026</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>450</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8784972881367227</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.002629752956991</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.1684069328689146</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.1276311201231878</v>
+      </c>
+      <c r="F79" t="n">
+        <v>20229394.94722548</v>
+      </c>
+      <c r="G79" t="n">
+        <v>8.46828390250076</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2022.938647894158</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.06180419427663292</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.3616100008484051</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2857.295270628702</v>
+      </c>
+      <c r="L79" t="n">
+        <v>834.3566227345443</v>
+      </c>
+      <c r="M79" t="n">
+        <v>118.759956370488</v>
+      </c>
+      <c r="N79" t="n">
+        <v>160.6875796834719</v>
+      </c>
+      <c r="O79" t="n">
+        <v>5.9379978185244</v>
+      </c>
+      <c r="P79" t="n">
+        <v>7.835079712806829</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.1418597479968383</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.08373053594995244</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.1360197169016143</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>450</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.986485405774531</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.542985186484072</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.6599124263991166</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.4194024483423416</v>
+      </c>
+      <c r="F80" t="n">
+        <v>24694148.13663633</v>
+      </c>
+      <c r="G80" t="n">
+        <v>12.66286110108993</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2469.413547377523</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.01733929364378667</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.6158037614107099</v>
+      </c>
+      <c r="K80" t="n">
+        <v>2703.494011568643</v>
+      </c>
+      <c r="L80" t="n">
+        <v>234.0804641911201</v>
+      </c>
+      <c r="M80" t="n">
+        <v>30.30705166310045</v>
+      </c>
+      <c r="N80" t="n">
+        <v>47.7362077170767</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.515352583155023</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2.384344688383267</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.1498914007909614</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.3299123574428632</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.1360000031768854</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>450</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8466172764780591</v>
+      </c>
+      <c r="C81" t="n">
+        <v>7.722868583438816</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.1002758724812407</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.4278030960648991</v>
+      </c>
+      <c r="F81" t="n">
+        <v>29238453.51033187</v>
+      </c>
+      <c r="G81" t="n">
+        <v>7.749240946277897</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2923.844576109092</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.05565221767505732</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.3318098296388376</v>
+      </c>
+      <c r="K81" t="n">
+        <v>3675.149514722366</v>
+      </c>
+      <c r="L81" t="n">
+        <v>751.3049386132739</v>
+      </c>
+      <c r="M81" t="n">
+        <v>199.4497729624994</v>
+      </c>
+      <c r="N81" t="n">
+        <v>53.10256996400929</v>
+      </c>
+      <c r="O81" t="n">
+        <v>9.972488648124971</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2.337523989887854</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.1373276528005606</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.05842799429289969</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.1360541825453774</v>
       </c>
     </row>
   </sheetData>
